--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -631,6 +631,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -671,18 +683,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2834,7 +2834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,9 +2857,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -2872,11 +2872,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -2912,9 +2912,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -2936,7 +2936,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>August!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -2949,9 +2949,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -2973,7 +2973,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>August!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -2986,9 +2986,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -3010,7 +3010,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>August!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -3023,9 +3023,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -3047,7 +3047,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>August!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -3060,9 +3060,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -3084,7 +3084,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>August!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -3097,9 +3097,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -3121,7 +3121,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>August!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -3134,9 +3134,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -3158,7 +3158,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>August!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -3171,9 +3171,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -3195,7 +3195,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>August!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -3208,9 +3208,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -3232,7 +3232,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>August!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -3245,9 +3245,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -3269,7 +3269,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>August!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -3282,17 +3282,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -3333,8 +3333,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -3343,10 +3343,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3366,8 +3366,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -3378,8 +3378,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -3390,8 +3390,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -3402,8 +3402,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -3414,8 +3414,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -3426,8 +3426,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -3438,8 +3438,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -3450,8 +3450,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -3462,8 +3462,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -3474,8 +3474,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -3486,8 +3486,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -3498,8 +3498,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -3510,8 +3510,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -3522,8 +3522,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -3534,8 +3534,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -3546,8 +3546,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -3558,8 +3558,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -3570,8 +3570,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -3582,8 +3582,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -3594,23 +3594,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -3618,20 +3618,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -3648,13 +3641,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -3678,7 +3678,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,9 +3701,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -3716,11 +3716,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -3756,9 +3756,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -3780,7 +3780,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>September!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -3793,9 +3793,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -3817,7 +3817,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>September!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -3830,9 +3830,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -3854,7 +3854,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>September!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -3867,9 +3867,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -3891,7 +3891,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>September!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -3904,9 +3904,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -3928,7 +3928,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>September!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -3941,9 +3941,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -3965,7 +3965,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>September!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -3978,9 +3978,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -4002,7 +4002,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>September!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -4015,9 +4015,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -4039,7 +4039,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>September!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -4052,9 +4052,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -4076,7 +4076,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>September!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -4089,9 +4089,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -4113,7 +4113,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>September!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -4126,17 +4126,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -4177,8 +4177,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -4187,10 +4187,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -4210,8 +4210,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -4222,8 +4222,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -4234,8 +4234,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -4246,8 +4246,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -4258,8 +4258,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -4270,8 +4270,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -4282,8 +4282,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -4294,8 +4294,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -4306,8 +4306,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -4318,8 +4318,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -4330,8 +4330,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -4342,8 +4342,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -4354,8 +4354,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -4366,8 +4366,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -4378,8 +4378,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -4390,8 +4390,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -4402,8 +4402,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -4414,8 +4414,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -4426,8 +4426,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -4438,23 +4438,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -4462,20 +4462,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -4492,13 +4485,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -4522,7 +4522,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,9 +4545,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -4560,11 +4560,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -4600,9 +4600,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -4624,7 +4624,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>October!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -4637,9 +4637,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -4661,7 +4661,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>October!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -4674,9 +4674,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -4698,7 +4698,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>October!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -4711,9 +4711,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -4735,7 +4735,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>October!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -4748,9 +4748,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -4772,7 +4772,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>October!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -4785,9 +4785,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -4809,7 +4809,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>October!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -4822,9 +4822,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -4846,7 +4846,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>October!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -4859,9 +4859,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -4883,7 +4883,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>October!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -4896,9 +4896,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -4920,7 +4920,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>October!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -4933,9 +4933,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -4957,7 +4957,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>October!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -4970,17 +4970,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -5021,8 +5021,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -5031,10 +5031,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -5054,8 +5054,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -5066,8 +5066,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -5078,8 +5078,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -5090,8 +5090,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -5102,8 +5102,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -5114,8 +5114,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -5126,8 +5126,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -5138,8 +5138,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -5150,8 +5150,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -5162,8 +5162,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -5174,8 +5174,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -5186,8 +5186,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -5198,8 +5198,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -5210,8 +5210,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -5222,8 +5222,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -5234,8 +5234,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -5246,8 +5246,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -5258,8 +5258,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -5270,8 +5270,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -5282,23 +5282,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -5306,20 +5306,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -5336,13 +5329,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5366,7 +5366,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5389,9 +5389,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -5404,11 +5404,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -5444,9 +5444,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -5468,7 +5468,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>November!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -5481,9 +5481,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -5505,7 +5505,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>November!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -5518,9 +5518,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -5542,7 +5542,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>November!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -5555,9 +5555,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -5579,7 +5579,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>November!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -5592,9 +5592,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -5616,7 +5616,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>November!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -5629,9 +5629,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -5653,7 +5653,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>November!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -5666,9 +5666,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -5690,7 +5690,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>November!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -5703,9 +5703,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -5727,7 +5727,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>November!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -5740,9 +5740,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -5764,7 +5764,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>November!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -5777,9 +5777,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -5801,7 +5801,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>November!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -5814,17 +5814,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -5865,8 +5865,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -5875,10 +5875,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -5898,8 +5898,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -5910,8 +5910,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -5922,8 +5922,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -5934,8 +5934,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -5946,8 +5946,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -5958,8 +5958,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -5970,8 +5970,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -5982,8 +5982,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -5994,8 +5994,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -6006,8 +6006,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -6018,8 +6018,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -6030,8 +6030,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -6042,8 +6042,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -6054,8 +6054,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -6066,8 +6066,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -6078,8 +6078,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -6090,8 +6090,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -6102,8 +6102,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -6114,8 +6114,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -6126,23 +6126,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -6150,20 +6150,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -6180,13 +6173,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -6210,7 +6210,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6232,9 +6232,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -6247,11 +6247,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -6287,9 +6287,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -6324,9 +6324,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -6361,9 +6361,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -6398,9 +6398,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -6435,9 +6435,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -6472,9 +6472,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -6509,9 +6509,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -6546,9 +6546,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -6583,9 +6583,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -6620,9 +6620,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -6657,17 +6657,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -6708,8 +6708,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -6718,10 +6718,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -6741,8 +6741,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -6753,8 +6753,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -6765,8 +6765,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -6777,8 +6777,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -6789,8 +6789,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -6801,8 +6801,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -6813,8 +6813,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -6825,8 +6825,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -6837,8 +6837,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -6849,8 +6849,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -6861,8 +6861,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -6873,8 +6873,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -6885,8 +6885,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -6897,8 +6897,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -6909,8 +6909,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -6921,8 +6921,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -6933,8 +6933,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -6945,8 +6945,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -6957,8 +6957,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -6969,23 +6969,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -6993,28 +6993,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="C15:D15"/>
@@ -7030,6 +7008,28 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
@@ -7053,7 +7053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7076,9 +7076,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -7091,11 +7091,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -7131,9 +7131,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -7168,9 +7168,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -7205,9 +7205,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -7242,9 +7242,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -7279,9 +7279,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -7316,9 +7316,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -7353,9 +7353,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -7390,9 +7390,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -7427,9 +7427,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -7464,9 +7464,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -7501,17 +7501,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -7552,8 +7552,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -7562,10 +7562,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -7585,8 +7585,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -7597,8 +7597,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -7609,8 +7609,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -7621,8 +7621,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -7633,8 +7633,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -7645,8 +7645,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -7657,8 +7657,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -7669,8 +7669,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -7681,8 +7681,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -7693,8 +7693,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -7705,8 +7705,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -7717,8 +7717,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -7729,8 +7729,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -7741,8 +7741,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -7753,8 +7753,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -7765,8 +7765,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -7777,8 +7777,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -7789,8 +7789,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -7801,8 +7801,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -7813,23 +7813,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -7837,20 +7837,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -7867,13 +7860,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
@@ -7897,7 +7897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7920,9 +7920,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -7935,11 +7935,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -7975,9 +7975,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -8012,9 +8012,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -8049,9 +8049,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -8086,9 +8086,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -8123,9 +8123,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -8160,9 +8160,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -8197,9 +8197,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -8234,9 +8234,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -8271,9 +8271,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -8308,9 +8308,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -8345,17 +8345,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -8396,8 +8396,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -8406,10 +8406,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -8429,8 +8429,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -8441,8 +8441,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -8453,8 +8453,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -8465,8 +8465,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -8477,8 +8477,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -8489,8 +8489,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -8501,8 +8501,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -8513,8 +8513,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -8525,8 +8525,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -8537,8 +8537,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -8549,8 +8549,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -8561,8 +8561,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -8573,8 +8573,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -8585,8 +8585,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -8597,8 +8597,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -8609,8 +8609,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -8621,8 +8621,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -8633,8 +8633,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -8645,8 +8645,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -8657,23 +8657,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -8681,20 +8681,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -8711,13 +8704,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
@@ -8741,7 +8741,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8764,9 +8764,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -8779,11 +8779,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -8819,9 +8819,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>March!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -8856,9 +8856,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -8880,7 +8880,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>March!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -8893,9 +8893,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -8917,7 +8917,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>March!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -8930,9 +8930,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -8954,7 +8954,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>March!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -8967,9 +8967,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -8991,7 +8991,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>March!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -9004,9 +9004,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -9028,7 +9028,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>March!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -9041,9 +9041,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -9065,7 +9065,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>March!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -9078,9 +9078,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -9102,7 +9102,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>March!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -9115,9 +9115,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -9139,7 +9139,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>March!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -9152,9 +9152,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -9176,7 +9176,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>March!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -9189,17 +9189,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -9240,8 +9240,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -9250,10 +9250,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -9273,8 +9273,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -9285,8 +9285,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -9297,8 +9297,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -9309,8 +9309,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -9321,8 +9321,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -9333,8 +9333,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -9345,8 +9345,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -9357,8 +9357,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -9369,8 +9369,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -9381,8 +9381,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -9393,8 +9393,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -9405,8 +9405,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -9417,8 +9417,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -9429,8 +9429,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -9441,8 +9441,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -9453,8 +9453,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -9465,8 +9465,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -9477,8 +9477,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -9489,8 +9489,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -9501,23 +9501,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -9525,20 +9525,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -9555,13 +9548,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
@@ -9585,7 +9585,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9608,9 +9608,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -9623,11 +9623,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -9663,9 +9663,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -9687,7 +9687,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>April!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -9700,9 +9700,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -9724,7 +9724,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>April!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -9737,9 +9737,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -9761,7 +9761,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>April!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -9774,9 +9774,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -9798,7 +9798,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>April!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -9811,9 +9811,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>April!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -9848,9 +9848,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -9872,7 +9872,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>April!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -9885,9 +9885,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -9909,7 +9909,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>April!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -9922,9 +9922,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -9946,7 +9946,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>April!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -9959,9 +9959,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -9983,7 +9983,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>April!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -9996,9 +9996,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -10020,7 +10020,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>April!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -10033,17 +10033,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -10084,8 +10084,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -10094,10 +10094,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -10117,8 +10117,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -10129,8 +10129,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -10141,8 +10141,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -10153,8 +10153,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -10165,8 +10165,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -10177,8 +10177,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -10189,8 +10189,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -10201,8 +10201,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -10213,8 +10213,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -10225,8 +10225,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -10237,8 +10237,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -10249,8 +10249,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -10261,8 +10261,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -10273,8 +10273,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -10285,8 +10285,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -10297,8 +10297,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -10309,8 +10309,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -10321,8 +10321,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -10333,8 +10333,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -10345,23 +10345,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -10369,20 +10369,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -10399,13 +10392,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
@@ -10429,7 +10429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10452,9 +10452,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -10467,11 +10467,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -10507,9 +10507,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -10531,7 +10531,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>May!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -10544,9 +10544,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -10568,7 +10568,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>May!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -10581,9 +10581,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -10605,7 +10605,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>May!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -10618,9 +10618,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -10642,7 +10642,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>May!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -10655,9 +10655,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -10679,7 +10679,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>May!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -10692,9 +10692,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -10716,7 +10716,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>May!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -10729,9 +10729,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -10753,7 +10753,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>May!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -10766,9 +10766,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -10790,7 +10790,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>May!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -10803,9 +10803,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -10827,7 +10827,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>May!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -10840,9 +10840,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -10864,7 +10864,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>May!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -10877,17 +10877,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -10928,8 +10928,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -10938,10 +10938,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -10961,8 +10961,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -10973,8 +10973,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -10985,8 +10985,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -10997,8 +10997,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -11009,8 +11009,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -11021,8 +11021,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -11033,8 +11033,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -11045,8 +11045,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -11057,8 +11057,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -11069,8 +11069,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -11081,8 +11081,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -11093,8 +11093,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -11105,8 +11105,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -11117,8 +11117,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -11129,8 +11129,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -11141,8 +11141,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -11153,8 +11153,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -11165,8 +11165,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -11177,8 +11177,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -11189,23 +11189,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -11213,20 +11213,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -11243,13 +11236,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
@@ -11273,7 +11273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11296,9 +11296,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -11311,11 +11311,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -11351,9 +11351,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -11375,7 +11375,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>June!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -11388,9 +11388,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -11412,7 +11412,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>June!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -11425,9 +11425,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -11449,7 +11449,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>June!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -11462,9 +11462,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -11486,7 +11486,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>June!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -11499,9 +11499,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -11523,7 +11523,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>June!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -11536,9 +11536,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -11560,7 +11560,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>June!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -11573,9 +11573,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -11597,7 +11597,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>June!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -11610,9 +11610,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -11634,7 +11634,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>June!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -11647,9 +11647,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -11671,7 +11671,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>June!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -11684,9 +11684,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -11708,7 +11708,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>June!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -11721,17 +11721,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -11772,8 +11772,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -11782,10 +11782,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -11805,8 +11805,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -11817,8 +11817,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -11829,8 +11829,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -11841,8 +11841,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -11853,8 +11853,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -11865,8 +11865,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -11877,8 +11877,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -11889,8 +11889,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -11901,8 +11901,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -11913,8 +11913,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -11925,8 +11925,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -11937,8 +11937,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -11949,8 +11949,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -11961,8 +11961,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -11973,8 +11973,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -11985,8 +11985,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -11997,8 +11997,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -12009,8 +12009,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -12021,8 +12021,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -12033,23 +12033,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -12057,20 +12057,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -12087,13 +12080,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
@@ -12117,7 +12117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12140,9 +12140,9 @@
       <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="62"/>
       <c r="F1" s="56"/>
       <c r="G1" s="60"/>
@@ -12155,11 +12155,11 @@
       <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
@@ -12195,9 +12195,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="4"/>
       <c r="E3" s="47"/>
       <c r="F3" s="13"/>
@@ -12219,7 +12219,7 @@
         <v/>
       </c>
       <c r="L3" s="38">
-        <f>February!$N3</f>
+        <f>July!$N3</f>
         <v>0</v>
       </c>
       <c r="M3" s="54">
@@ -12232,9 +12232,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11"/>
       <c r="F4" s="14"/>
@@ -12256,7 +12256,7 @@
         <v/>
       </c>
       <c r="L4" s="38">
-        <f>February!$N4</f>
+        <f>July!$N4</f>
         <v>0</v>
       </c>
       <c r="M4" s="54">
@@ -12269,9 +12269,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11"/>
       <c r="F5" s="14"/>
@@ -12293,7 +12293,7 @@
         <v/>
       </c>
       <c r="L5" s="38">
-        <f>February!$N5</f>
+        <f>July!$N5</f>
         <v>0</v>
       </c>
       <c r="M5" s="54">
@@ -12306,9 +12306,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="5"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
@@ -12330,7 +12330,7 @@
         <v/>
       </c>
       <c r="L6" s="38">
-        <f>February!$N6</f>
+        <f>July!$N6</f>
         <v>0</v>
       </c>
       <c r="M6" s="54">
@@ -12343,9 +12343,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -12367,7 +12367,7 @@
         <v/>
       </c>
       <c r="L7" s="38">
-        <f>February!$N7</f>
+        <f>July!$N7</f>
         <v>0</v>
       </c>
       <c r="M7" s="54">
@@ -12380,9 +12380,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
@@ -12404,7 +12404,7 @@
         <v/>
       </c>
       <c r="L8" s="38">
-        <f>February!$N8</f>
+        <f>July!$N8</f>
         <v>0</v>
       </c>
       <c r="M8" s="54">
@@ -12417,9 +12417,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
@@ -12441,7 +12441,7 @@
         <v/>
       </c>
       <c r="L9" s="38">
-        <f>February!$N9</f>
+        <f>July!$N9</f>
         <v>0</v>
       </c>
       <c r="M9" s="54">
@@ -12454,9 +12454,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
@@ -12478,7 +12478,7 @@
         <v/>
       </c>
       <c r="L10" s="38">
-        <f>February!$N10</f>
+        <f>July!$N10</f>
         <v>0</v>
       </c>
       <c r="M10" s="54">
@@ -12491,9 +12491,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11"/>
       <c r="F11" s="14"/>
@@ -12515,7 +12515,7 @@
         <v/>
       </c>
       <c r="L11" s="38">
-        <f>February!$N11</f>
+        <f>July!$N11</f>
         <v>0</v>
       </c>
       <c r="M11" s="54">
@@ -12528,9 +12528,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5"/>
       <c r="E12" s="18"/>
       <c r="F12" s="15"/>
@@ -12552,7 +12552,7 @@
         <v/>
       </c>
       <c r="L12" s="38">
-        <f>February!$N12</f>
+        <f>July!$N12</f>
         <v>0</v>
       </c>
       <c r="M12" s="54">
@@ -12565,17 +12565,17 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="74">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="78">
         <f>SUM(D$3:D$12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
@@ -12616,8 +12616,8 @@
       <c r="D14" s="58"/>
       <c r="E14" s="59"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
@@ -12626,10 +12626,10 @@
       <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
@@ -12649,8 +12649,8 @@
       <c r="B16" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="19"/>
       <c r="F16" s="17"/>
       <c r="G16" s="5"/>
@@ -12661,8 +12661,8 @@
       <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="20"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
@@ -12673,8 +12673,8 @@
       <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
@@ -12685,8 +12685,8 @@
       <c r="B19" s="50">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="20"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
@@ -12697,8 +12697,8 @@
       <c r="B20" s="50">
         <v>5</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="20"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
@@ -12709,8 +12709,8 @@
       <c r="B21" s="50">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="20"/>
       <c r="F21" s="11"/>
       <c r="G21" s="5"/>
@@ -12721,8 +12721,8 @@
       <c r="B22" s="50">
         <v>7</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="5"/>
@@ -12733,8 +12733,8 @@
       <c r="B23" s="50">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="20"/>
       <c r="F23" s="11"/>
       <c r="G23" s="5"/>
@@ -12745,8 +12745,8 @@
       <c r="B24" s="50">
         <v>9</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="20"/>
       <c r="F24" s="11"/>
       <c r="G24" s="5"/>
@@ -12757,8 +12757,8 @@
       <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="11"/>
       <c r="G25" s="5"/>
@@ -12769,8 +12769,8 @@
       <c r="B26" s="50">
         <v>11</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="20"/>
       <c r="F26" s="11"/>
       <c r="G26" s="5"/>
@@ -12781,8 +12781,8 @@
       <c r="B27" s="50">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="20"/>
       <c r="F27" s="11"/>
       <c r="G27" s="5"/>
@@ -12793,8 +12793,8 @@
       <c r="B28" s="50">
         <v>13</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="20"/>
       <c r="F28" s="11"/>
       <c r="G28" s="5"/>
@@ -12805,8 +12805,8 @@
       <c r="B29" s="50">
         <v>14</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="20"/>
       <c r="F29" s="11"/>
       <c r="G29" s="5"/>
@@ -12817,8 +12817,8 @@
       <c r="B30" s="50">
         <v>15</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="20"/>
       <c r="F30" s="11"/>
       <c r="G30" s="5"/>
@@ -12829,8 +12829,8 @@
       <c r="B31" s="50">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="20"/>
       <c r="F31" s="11"/>
       <c r="G31" s="5"/>
@@ -12841,8 +12841,8 @@
       <c r="B32" s="50">
         <v>17</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="20"/>
       <c r="F32" s="11"/>
       <c r="G32" s="5"/>
@@ -12853,8 +12853,8 @@
       <c r="B33" s="50">
         <v>18</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="20"/>
       <c r="F33" s="11"/>
       <c r="G33" s="5"/>
@@ -12865,8 +12865,8 @@
       <c r="B34" s="50">
         <v>19</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="20"/>
       <c r="F34" s="11"/>
       <c r="G34" s="5"/>
@@ -12877,23 +12877,23 @@
       <c r="B35" s="51">
         <v>20</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="35">
         <f>SUM(H$16:H$35)</f>
         <v>0</v>
@@ -12901,20 +12901,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -12931,13 +12924,20 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
